--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,12 +52,12 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,43 +70,46 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>support</t>
@@ -115,21 +118,15 @@
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -151,22 +148,22 @@
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
   </si>
   <si>
     <t>store</t>
@@ -539,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,13 +629,13 @@
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -658,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6952054794520548</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C5">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D5">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +779,13 @@
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -808,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.348993288590604</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
@@ -858,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3410852713178295</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C8">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>340</v>
+        <v>98</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
@@ -908,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.328042328042328</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8359375</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1587301587301587</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.08847184986595175</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1055,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8203125</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L12">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1084,13 +1081,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7833333333333333</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1102,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1110,13 +1107,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7746478873239436</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1128,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1136,13 +1133,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1154,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1162,13 +1159,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7452830188679245</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L16">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1180,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1188,13 +1185,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.73125</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L17">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="M17">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1206,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1214,13 +1211,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.71875</v>
       </c>
       <c r="L18">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="M18">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1232,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1240,13 +1237,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6984126984126984</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1258,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1266,13 +1263,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6944444444444444</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1284,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1318,13 +1315,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6370757180156658</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1336,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1344,13 +1341,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6161879895561357</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1362,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1370,13 +1367,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1388,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1396,13 +1393,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5852941176470589</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1414,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1422,13 +1419,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1440,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1448,13 +1445,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.535593220338983</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L27">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1466,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>137</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1474,13 +1471,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5280898876404494</v>
+        <v>0.4769874476987448</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1492,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1500,13 +1497,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4728033472803347</v>
+        <v>0.46875</v>
       </c>
       <c r="L29">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1518,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1552,13 +1549,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4461538461538462</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1570,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1578,13 +1575,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.390625</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1596,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1604,13 +1601,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.3846153846153846</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1622,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1630,13 +1627,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.1148325358851675</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1648,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1656,13 +1653,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.09134615384615384</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1674,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>378</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1682,13 +1679,13 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.05704697986577181</v>
+        <v>0.04106548279689234</v>
       </c>
       <c r="L36">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1700,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>843</v>
+        <v>864</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1708,13 +1705,13 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.04661487236403995</v>
+        <v>0.03575547866205306</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1726,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>859</v>
+        <v>836</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1734,25 +1731,25 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.03114186851211072</v>
+        <v>0.02615600186828585</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>840</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1760,50 +1757,24 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>0.03037383177570093</v>
+        <v>0.01483392454047082</v>
       </c>
       <c r="L39">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M39">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40">
-        <v>0.01483392454047082</v>
-      </c>
-      <c r="L40">
-        <v>46</v>
-      </c>
-      <c r="M40">
-        <v>52</v>
-      </c>
-      <c r="N40">
-        <v>0.88</v>
-      </c>
-      <c r="O40">
-        <v>0.12</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
         <v>3055</v>
       </c>
     </row>
